--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R657"/>
+  <dimension ref="A1:R658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886954</v>
+        <v>13886953</v>
       </c>
       <c r="G98">
-        <v>11076387</v>
+        <v>11076386</v>
       </c>
       <c r="H98">
         <v>904868</v>
@@ -4911,7 +4911,7 @@
         <v>80.48999999999999</v>
       </c>
       <c r="M100">
-        <v>8552551</v>
+        <v>8552550</v>
       </c>
       <c r="N100">
         <v>7655474</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935451</v>
+        <v>935461</v>
       </c>
       <c r="I132">
         <v>100.71</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14066998</v>
+        <v>14067008</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469450</v>
+        <v>14469460</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605086</v>
+        <v>14605096</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690523</v>
+        <v>14690532</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866982</v>
+        <v>14866992</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861500</v>
+        <v>14861510</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670892</v>
+        <v>14670901</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467117</v>
+        <v>14467127</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823634</v>
+        <v>823637</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131897</v>
+        <v>14131906</v>
       </c>
       <c r="N140">
-        <v>8935470</v>
+        <v>8935473</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894193</v>
+        <v>13894203</v>
       </c>
       <c r="N141">
-        <v>8781985</v>
+        <v>8781988</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750100</v>
+        <v>13750110</v>
       </c>
       <c r="N142">
-        <v>8776253</v>
+        <v>8776256</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621969</v>
+        <v>13621979</v>
       </c>
       <c r="N143">
-        <v>8836695</v>
+        <v>8836698</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042503</v>
+        <v>9042506</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395123</v>
+        <v>9395126</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715987</v>
+        <v>9715990</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916818</v>
+        <v>9916821</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176451</v>
+        <v>10176454</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402032</v>
+        <v>10402035</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586432</v>
+        <v>10586435</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834345</v>
+        <v>10834348</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590395</v>
+        <v>590401</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,13 +9451,13 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817067</v>
+        <v>9817179</v>
       </c>
       <c r="H186">
-        <v>1208866</v>
+        <v>1208850</v>
       </c>
       <c r="I186">
-        <v>127.37</v>
+        <v>127.36</v>
       </c>
       <c r="J186">
         <v>32.49</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889655</v>
+        <v>13889639</v>
       </c>
       <c r="N186">
-        <v>8211200</v>
+        <v>8211206</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965888</v>
+        <v>13965872</v>
       </c>
       <c r="N187">
-        <v>8231191</v>
+        <v>8231197</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177122</v>
+        <v>14177105</v>
       </c>
       <c r="N188">
-        <v>8310977</v>
+        <v>8310983</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204866</v>
+        <v>204865</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9628,13 +9628,13 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260429</v>
+        <v>14260413</v>
       </c>
       <c r="N189">
-        <v>8315337</v>
+        <v>8315343</v>
       </c>
       <c r="O189">
-        <v>2521451</v>
+        <v>2521450</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9681,13 +9681,13 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422756</v>
+        <v>14422740</v>
       </c>
       <c r="N190">
-        <v>8370918</v>
+        <v>8370924</v>
       </c>
       <c r="O190">
-        <v>2540055</v>
+        <v>2540054</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670741</v>
+        <v>8670734</v>
       </c>
       <c r="H191">
         <v>1073113</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527966</v>
+        <v>14527950</v>
       </c>
       <c r="N191">
-        <v>8368460</v>
+        <v>8368466</v>
       </c>
       <c r="O191">
-        <v>2551083</v>
+        <v>2551082</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532741</v>
+        <v>14532725</v>
       </c>
       <c r="N192">
-        <v>8290034</v>
+        <v>8290040</v>
       </c>
       <c r="O192">
-        <v>2547705</v>
+        <v>2547704</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761265</v>
+        <v>14761248</v>
       </c>
       <c r="N193">
-        <v>8365126</v>
+        <v>8365132</v>
       </c>
       <c r="O193">
-        <v>2572353</v>
+        <v>2572352</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729053</v>
+        <v>14729051</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843945</v>
+        <v>14843929</v>
       </c>
       <c r="N194">
-        <v>8388013</v>
+        <v>8388019</v>
       </c>
       <c r="O194">
-        <v>2570153</v>
+        <v>2570152</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888876</v>
+        <v>14888860</v>
       </c>
       <c r="N195">
-        <v>8325485</v>
+        <v>8325491</v>
       </c>
       <c r="O195">
-        <v>2571042</v>
+        <v>2571041</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967558</v>
+        <v>14967542</v>
       </c>
       <c r="N196">
-        <v>8319981</v>
+        <v>8319987</v>
       </c>
       <c r="O196">
-        <v>2563116</v>
+        <v>2563115</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089702</v>
+        <v>15089686</v>
       </c>
       <c r="N197">
-        <v>8341445</v>
+        <v>8341451</v>
       </c>
       <c r="O197">
-        <v>2566571</v>
+        <v>2566570</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10111,7 +10111,7 @@
         <v>8330328</v>
       </c>
       <c r="O198">
-        <v>2567372</v>
+        <v>2567371</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10164,7 +10164,7 @@
         <v>8356576</v>
       </c>
       <c r="O199">
-        <v>2587921</v>
+        <v>2587920</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10217,7 +10217,7 @@
         <v>8350595</v>
       </c>
       <c r="O200">
-        <v>2599970</v>
+        <v>2599969</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071171</v>
+        <v>10071167</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851281</v>
+        <v>9851271</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361136</v>
+        <v>1361135</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588994</v>
+        <v>11588988</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -33315,22 +33315,22 @@
         <v>352.03</v>
       </c>
       <c r="J622">
-        <v>29.08</v>
+        <v>29.06</v>
       </c>
       <c r="K622">
-        <v>20.98</v>
+        <v>21.08</v>
       </c>
       <c r="L622">
-        <v>340.1</v>
+        <v>340.13</v>
       </c>
       <c r="M622">
-        <v>58985486</v>
+        <v>58977633</v>
       </c>
       <c r="N622">
-        <v>8911033</v>
+        <v>8867291</v>
       </c>
       <c r="O622">
-        <v>8847971</v>
+        <v>8844302</v>
       </c>
       <c r="P622">
         <v>5141</v>
@@ -33987,22 +33987,22 @@
         <v>404.38</v>
       </c>
       <c r="J634">
-        <v>29.51</v>
+        <v>29.5</v>
       </c>
       <c r="K634">
-        <v>15.4</v>
+        <v>15.36</v>
       </c>
       <c r="L634">
-        <v>387.6</v>
+        <v>387.64</v>
       </c>
       <c r="M634">
-        <v>25078500</v>
+        <v>25075803</v>
       </c>
       <c r="N634">
-        <v>4348957</v>
+        <v>4359415</v>
       </c>
       <c r="O634">
-        <v>1875477</v>
+        <v>1874641</v>
       </c>
       <c r="P634">
         <v>5148</v>
@@ -34703,7 +34703,7 @@
         <v>169709</v>
       </c>
       <c r="F647">
-        <v>7436039</v>
+        <v>7435998</v>
       </c>
       <c r="G647">
         <v>6110566</v>
@@ -34759,7 +34759,7 @@
         <v>151099</v>
       </c>
       <c r="F648">
-        <v>6834816</v>
+        <v>6834796</v>
       </c>
       <c r="G648">
         <v>5679700</v>
@@ -34815,7 +34815,7 @@
         <v>159293</v>
       </c>
       <c r="F649">
-        <v>8153463</v>
+        <v>8153442</v>
       </c>
       <c r="G649">
         <v>6408927</v>
@@ -34971,22 +34971,22 @@
         <v>45382</v>
       </c>
       <c r="B652">
-        <v>844295</v>
+        <v>844296</v>
       </c>
       <c r="C652">
         <v>2000.4</v>
       </c>
       <c r="D652">
-        <v>409088</v>
+        <v>409059</v>
       </c>
       <c r="E652">
         <v>163774</v>
       </c>
       <c r="F652">
-        <v>8831427</v>
+        <v>8831055</v>
       </c>
       <c r="G652">
-        <v>7328646</v>
+        <v>7328518</v>
       </c>
       <c r="H652">
         <v>3287976</v>
@@ -35007,7 +35007,7 @@
         <v>34156550</v>
       </c>
       <c r="N652">
-        <v>5217446</v>
+        <v>5217417</v>
       </c>
       <c r="O652">
         <v>1888538</v>
@@ -35027,22 +35027,22 @@
         <v>45412</v>
       </c>
       <c r="B653">
-        <v>901400</v>
+        <v>901499</v>
       </c>
       <c r="C653">
         <v>1807.6</v>
       </c>
       <c r="D653">
-        <v>383175</v>
+        <v>383137</v>
       </c>
       <c r="E653">
         <v>185615</v>
       </c>
       <c r="F653">
-        <v>7954081</v>
+        <v>7953125</v>
       </c>
       <c r="G653">
-        <v>7093475</v>
+        <v>7093323</v>
       </c>
       <c r="H653">
         <v>3176634</v>
@@ -35063,7 +35063,7 @@
         <v>34719094</v>
       </c>
       <c r="N653">
-        <v>5232418</v>
+        <v>5232351</v>
       </c>
       <c r="O653">
         <v>1925423</v>
@@ -35083,7 +35083,7 @@
         <v>45443</v>
       </c>
       <c r="B654">
-        <v>879487</v>
+        <v>879489</v>
       </c>
       <c r="C654">
         <v>1650</v>
@@ -35095,7 +35095,7 @@
         <v>168510</v>
       </c>
       <c r="F654">
-        <v>7049818</v>
+        <v>7049042</v>
       </c>
       <c r="G654">
         <v>6013043</v>
@@ -35119,7 +35119,7 @@
         <v>34765093</v>
       </c>
       <c r="N654">
-        <v>5221935</v>
+        <v>5221868</v>
       </c>
       <c r="O654">
         <v>1938241</v>
@@ -35139,7 +35139,7 @@
         <v>45473</v>
       </c>
       <c r="B655">
-        <v>968210</v>
+        <v>968215</v>
       </c>
       <c r="C655">
         <v>1736.8</v>
@@ -35151,7 +35151,7 @@
         <v>159554</v>
       </c>
       <c r="F655">
-        <v>7674764</v>
+        <v>7674226</v>
       </c>
       <c r="G655">
         <v>6015491</v>
@@ -35175,7 +35175,7 @@
         <v>34949694</v>
       </c>
       <c r="N655">
-        <v>5206383</v>
+        <v>5206316</v>
       </c>
       <c r="O655">
         <v>1962179</v>
@@ -35187,7 +35187,7 @@
         <v>14868</v>
       </c>
       <c r="R655">
-        <v>449858</v>
+        <v>452201</v>
       </c>
     </row>
     <row r="656">
@@ -35195,25 +35195,25 @@
         <v>45504</v>
       </c>
       <c r="B656">
-        <v>1066319</v>
+        <v>1066396</v>
       </c>
       <c r="C656">
         <v>1901</v>
       </c>
       <c r="D656">
-        <v>522165</v>
+        <v>522125</v>
       </c>
       <c r="E656">
-        <v>181919</v>
+        <v>181906</v>
       </c>
       <c r="F656">
-        <v>8487223</v>
+        <v>8487703</v>
       </c>
       <c r="G656">
         <v>7347349</v>
       </c>
       <c r="H656">
-        <v>3164037</v>
+        <v>3163985</v>
       </c>
       <c r="I656">
         <v>438.16</v>
@@ -35228,22 +35228,22 @@
         <v>450.23</v>
       </c>
       <c r="M656">
-        <v>35307569</v>
+        <v>35307517</v>
       </c>
       <c r="N656">
-        <v>5258563</v>
+        <v>5258456</v>
       </c>
       <c r="O656">
-        <v>1978724</v>
+        <v>1978711</v>
       </c>
       <c r="P656">
-        <v>5446</v>
+        <v>5459</v>
       </c>
       <c r="Q656">
-        <v>14873</v>
+        <v>14890</v>
       </c>
       <c r="R656">
-        <v>449601</v>
+        <v>453722</v>
       </c>
     </row>
     <row r="657">
@@ -35251,49 +35251,108 @@
         <v>45535</v>
       </c>
       <c r="B657">
-        <v>812630</v>
+        <v>848618</v>
+      </c>
+      <c r="C657">
+        <v>1817.9</v>
       </c>
       <c r="D657">
-        <v>389995</v>
+        <v>408600</v>
       </c>
       <c r="E657">
-        <v>164964</v>
+        <v>164606</v>
       </c>
       <c r="F657">
-        <v>7524620</v>
+        <v>7586004</v>
       </c>
       <c r="G657">
-        <v>6370866</v>
+        <v>6466287</v>
       </c>
       <c r="H657">
-        <v>2762037</v>
+        <v>2800253</v>
       </c>
       <c r="I657">
-        <v>440.66</v>
+        <v>440.91</v>
       </c>
       <c r="J657">
-        <v>38.04</v>
+        <v>38.03</v>
       </c>
       <c r="K657">
-        <v>15.24</v>
+        <v>15.21</v>
       </c>
       <c r="L657">
-        <v>450.81</v>
+        <v>450.82</v>
       </c>
       <c r="M657">
-        <v>35261743</v>
+        <v>35299907</v>
       </c>
       <c r="N657">
-        <v>5222708</v>
+        <v>5241206</v>
       </c>
       <c r="O657">
-        <v>1987566</v>
+        <v>1987195</v>
       </c>
       <c r="P657">
-        <v>5447</v>
+        <v>5470</v>
       </c>
       <c r="Q657">
-        <v>14895</v>
+        <v>14923</v>
+      </c>
+      <c r="R657">
+        <v>455182</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B658">
+        <v>787514</v>
+      </c>
+      <c r="C658">
+        <v>1615.9</v>
+      </c>
+      <c r="D658">
+        <v>346737</v>
+      </c>
+      <c r="E658">
+        <v>172996</v>
+      </c>
+      <c r="F658">
+        <v>7541045</v>
+      </c>
+      <c r="G658">
+        <v>6160549</v>
+      </c>
+      <c r="H658">
+        <v>2727355</v>
+      </c>
+      <c r="I658">
+        <v>451.72</v>
+      </c>
+      <c r="J658">
+        <v>38.7</v>
+      </c>
+      <c r="K658">
+        <v>15.3</v>
+      </c>
+      <c r="L658">
+        <v>451.28</v>
+      </c>
+      <c r="M658">
+        <v>35626182</v>
+      </c>
+      <c r="N658">
+        <v>5251437</v>
+      </c>
+      <c r="O658">
+        <v>2019035</v>
+      </c>
+      <c r="P658">
+        <v>5483</v>
+      </c>
+      <c r="Q658">
+        <v>14939</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R658"/>
+  <dimension ref="A1:R659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935461</v>
+        <v>935465</v>
       </c>
       <c r="I132">
         <v>100.71</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067008</v>
+        <v>14067012</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469460</v>
+        <v>14469464</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605096</v>
+        <v>14605100</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690532</v>
+        <v>14690536</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866992</v>
+        <v>14866996</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861510</v>
+        <v>14861514</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670901</v>
+        <v>14670906</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467127</v>
+        <v>14467131</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823637</v>
+        <v>823639</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131906</v>
+        <v>14131911</v>
       </c>
       <c r="N140">
-        <v>8935473</v>
+        <v>8935475</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894203</v>
+        <v>13894207</v>
       </c>
       <c r="N141">
-        <v>8781988</v>
+        <v>8781990</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750110</v>
+        <v>13750114</v>
       </c>
       <c r="N142">
-        <v>8776256</v>
+        <v>8776258</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621979</v>
+        <v>13621983</v>
       </c>
       <c r="N143">
-        <v>8836698</v>
+        <v>8836700</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042506</v>
+        <v>9042508</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395126</v>
+        <v>9395128</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715990</v>
+        <v>9715992</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916821</v>
+        <v>9916823</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176454</v>
+        <v>10176456</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402035</v>
+        <v>10402037</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586435</v>
+        <v>10586437</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834348</v>
+        <v>10834350</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590401</v>
+        <v>590409</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817179</v>
+        <v>9817313</v>
       </c>
       <c r="H186">
-        <v>1208850</v>
+        <v>1208839</v>
       </c>
       <c r="I186">
         <v>127.36</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889639</v>
+        <v>13889629</v>
       </c>
       <c r="N186">
-        <v>8211206</v>
+        <v>8211214</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965872</v>
+        <v>13965862</v>
       </c>
       <c r="N187">
-        <v>8231197</v>
+        <v>8231205</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177105</v>
+        <v>14177095</v>
       </c>
       <c r="N188">
-        <v>8310983</v>
+        <v>8310991</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260413</v>
+        <v>14260403</v>
       </c>
       <c r="N189">
-        <v>8315343</v>
+        <v>8315351</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422740</v>
+        <v>14422730</v>
       </c>
       <c r="N190">
-        <v>8370924</v>
+        <v>8370932</v>
       </c>
       <c r="O190">
         <v>2540054</v>
@@ -9707,16 +9707,16 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573568</v>
+        <v>573567</v>
       </c>
       <c r="E191">
-        <v>207672</v>
+        <v>207671</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670734</v>
+        <v>8670729</v>
       </c>
       <c r="H191">
         <v>1073113</v>
@@ -9734,13 +9734,13 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527950</v>
+        <v>14527940</v>
       </c>
       <c r="N191">
-        <v>8368466</v>
+        <v>8368473</v>
       </c>
       <c r="O191">
-        <v>2551082</v>
+        <v>2551081</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9787,13 +9787,13 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532725</v>
+        <v>14532715</v>
       </c>
       <c r="N192">
-        <v>8290040</v>
+        <v>8290047</v>
       </c>
       <c r="O192">
-        <v>2547704</v>
+        <v>2547703</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9840,13 +9840,13 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761248</v>
+        <v>14761238</v>
       </c>
       <c r="N193">
-        <v>8365132</v>
+        <v>8365139</v>
       </c>
       <c r="O193">
-        <v>2572352</v>
+        <v>2572351</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729051</v>
+        <v>14729049</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,13 +9893,13 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843929</v>
+        <v>14843919</v>
       </c>
       <c r="N194">
-        <v>8388019</v>
+        <v>8388026</v>
       </c>
       <c r="O194">
-        <v>2570152</v>
+        <v>2570151</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9946,13 +9946,13 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888860</v>
+        <v>14888849</v>
       </c>
       <c r="N195">
-        <v>8325491</v>
+        <v>8325498</v>
       </c>
       <c r="O195">
-        <v>2571041</v>
+        <v>2571040</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097740</v>
+        <v>13097738</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,13 +9999,13 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967542</v>
+        <v>14967531</v>
       </c>
       <c r="N196">
-        <v>8319987</v>
+        <v>8319994</v>
       </c>
       <c r="O196">
-        <v>2563115</v>
+        <v>2563114</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10052,13 +10052,13 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089686</v>
+        <v>15089675</v>
       </c>
       <c r="N197">
-        <v>8341451</v>
+        <v>8341458</v>
       </c>
       <c r="O197">
-        <v>2566570</v>
+        <v>2566569</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10108,10 +10108,10 @@
         <v>15141561</v>
       </c>
       <c r="N198">
-        <v>8330328</v>
+        <v>8330327</v>
       </c>
       <c r="O198">
-        <v>2567371</v>
+        <v>2567370</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10137,7 +10137,7 @@
         <v>214625</v>
       </c>
       <c r="F199">
-        <v>10187276</v>
+        <v>10187277</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10161,10 +10161,10 @@
         <v>15309105</v>
       </c>
       <c r="N199">
-        <v>8356576</v>
+        <v>8356575</v>
       </c>
       <c r="O199">
-        <v>2587920</v>
+        <v>2587919</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10214,10 +10214,10 @@
         <v>15440715</v>
       </c>
       <c r="N200">
-        <v>8350595</v>
+        <v>8350594</v>
       </c>
       <c r="O200">
-        <v>2599969</v>
+        <v>2599968</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10267,10 +10267,10 @@
         <v>15510489</v>
       </c>
       <c r="N201">
-        <v>8368338</v>
+        <v>8368337</v>
       </c>
       <c r="O201">
-        <v>2605542</v>
+        <v>2605541</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071167</v>
+        <v>10071165</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10320,10 +10320,10 @@
         <v>15673799</v>
       </c>
       <c r="N202">
-        <v>8381895</v>
+        <v>8381894</v>
       </c>
       <c r="O202">
-        <v>2635459</v>
+        <v>2635458</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851271</v>
+        <v>9851261</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361135</v>
+        <v>1361134</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588988</v>
+        <v>11588982</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -34871,7 +34871,7 @@
         <v>184503</v>
       </c>
       <c r="F650">
-        <v>9544615</v>
+        <v>9544611</v>
       </c>
       <c r="G650">
         <v>8366645</v>
@@ -35139,7 +35139,7 @@
         <v>45473</v>
       </c>
       <c r="B655">
-        <v>968215</v>
+        <v>968764</v>
       </c>
       <c r="C655">
         <v>1736.8</v>
@@ -35195,7 +35195,7 @@
         <v>45504</v>
       </c>
       <c r="B656">
-        <v>1066396</v>
+        <v>1066995</v>
       </c>
       <c r="C656">
         <v>1901</v>
@@ -35243,7 +35243,7 @@
         <v>14890</v>
       </c>
       <c r="R656">
-        <v>453722</v>
+        <v>456588</v>
       </c>
     </row>
     <row r="657">
@@ -35251,7 +35251,7 @@
         <v>45535</v>
       </c>
       <c r="B657">
-        <v>848618</v>
+        <v>849175</v>
       </c>
       <c r="C657">
         <v>1817.9</v>
@@ -35293,13 +35293,13 @@
         <v>1987195</v>
       </c>
       <c r="P657">
-        <v>5470</v>
+        <v>5473</v>
       </c>
       <c r="Q657">
-        <v>14923</v>
+        <v>14916</v>
       </c>
       <c r="R657">
-        <v>455182</v>
+        <v>456781</v>
       </c>
     </row>
     <row r="658">
@@ -35307,52 +35307,105 @@
         <v>45565</v>
       </c>
       <c r="B658">
-        <v>787514</v>
+        <v>791205</v>
       </c>
       <c r="C658">
         <v>1615.9</v>
       </c>
       <c r="D658">
-        <v>346737</v>
+        <v>350314</v>
       </c>
       <c r="E658">
-        <v>172996</v>
+        <v>170666</v>
       </c>
       <c r="F658">
-        <v>7541045</v>
+        <v>7596697</v>
       </c>
       <c r="G658">
-        <v>6160549</v>
+        <v>6214533</v>
       </c>
       <c r="H658">
-        <v>2727355</v>
+        <v>2747102</v>
       </c>
       <c r="I658">
-        <v>451.72</v>
+        <v>451.14</v>
       </c>
       <c r="J658">
-        <v>38.7</v>
+        <v>38.65</v>
       </c>
       <c r="K658">
         <v>15.3</v>
       </c>
       <c r="L658">
-        <v>451.28</v>
+        <v>451.24</v>
       </c>
       <c r="M658">
-        <v>35626182</v>
+        <v>35645929</v>
       </c>
       <c r="N658">
-        <v>5251437</v>
+        <v>5255014</v>
       </c>
       <c r="O658">
-        <v>2019035</v>
+        <v>2016704</v>
       </c>
       <c r="P658">
-        <v>5483</v>
+        <v>5486</v>
       </c>
       <c r="Q658">
-        <v>14939</v>
+        <v>14930</v>
+      </c>
+      <c r="R658">
+        <v>458816</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B659">
+        <v>976368</v>
+      </c>
+      <c r="D659">
+        <v>385592</v>
+      </c>
+      <c r="E659">
+        <v>171197</v>
+      </c>
+      <c r="F659">
+        <v>6739642</v>
+      </c>
+      <c r="G659">
+        <v>5767741</v>
+      </c>
+      <c r="H659">
+        <v>2620579</v>
+      </c>
+      <c r="I659">
+        <v>463.4</v>
+      </c>
+      <c r="J659">
+        <v>38.57</v>
+      </c>
+      <c r="K659">
+        <v>15.19</v>
+      </c>
+      <c r="L659">
+        <v>452.48</v>
+      </c>
+      <c r="M659">
+        <v>35588233</v>
+      </c>
+      <c r="N659">
+        <v>5273189</v>
+      </c>
+      <c r="O659">
+        <v>2018192</v>
+      </c>
+      <c r="P659">
+        <v>5504</v>
+      </c>
+      <c r="Q659">
+        <v>14951</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R659"/>
+  <dimension ref="A1:R660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4784,10 +4784,10 @@
         <v>210661</v>
       </c>
       <c r="F98">
-        <v>13886953</v>
+        <v>13886951</v>
       </c>
       <c r="G98">
-        <v>11076386</v>
+        <v>11076384</v>
       </c>
       <c r="H98">
         <v>904868</v>
@@ -5017,7 +5017,7 @@
         <v>81.34999999999999</v>
       </c>
       <c r="M102">
-        <v>8469977</v>
+        <v>8469976</v>
       </c>
       <c r="N102">
         <v>7605385</v>
@@ -5388,7 +5388,7 @@
         <v>83.67</v>
       </c>
       <c r="M109">
-        <v>8212239</v>
+        <v>8212238</v>
       </c>
       <c r="N109">
         <v>7568310</v>
@@ -6592,7 +6592,7 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935465</v>
+        <v>935466</v>
       </c>
       <c r="I132">
         <v>100.71</v>
@@ -6607,7 +6607,7 @@
         <v>99.05</v>
       </c>
       <c r="M132">
-        <v>14067012</v>
+        <v>14067013</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6660,7 +6660,7 @@
         <v>99.53</v>
       </c>
       <c r="M133">
-        <v>14469464</v>
+        <v>14469466</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6713,7 +6713,7 @@
         <v>100.2</v>
       </c>
       <c r="M134">
-        <v>14605100</v>
+        <v>14605101</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6766,7 +6766,7 @@
         <v>100.72</v>
       </c>
       <c r="M135">
-        <v>14690536</v>
+        <v>14690538</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6819,7 +6819,7 @@
         <v>101.31</v>
       </c>
       <c r="M136">
-        <v>14866996</v>
+        <v>14866997</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6872,7 +6872,7 @@
         <v>101.83</v>
       </c>
       <c r="M137">
-        <v>14861514</v>
+        <v>14861515</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6925,7 +6925,7 @@
         <v>102.25</v>
       </c>
       <c r="M138">
-        <v>14670906</v>
+        <v>14670907</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6978,7 +6978,7 @@
         <v>102.61</v>
       </c>
       <c r="M139">
-        <v>14467131</v>
+        <v>14467132</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823639</v>
+        <v>823643</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7031,10 +7031,10 @@
         <v>103.08</v>
       </c>
       <c r="M140">
-        <v>14131911</v>
+        <v>14131912</v>
       </c>
       <c r="N140">
-        <v>8935475</v>
+        <v>8935479</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7084,10 +7084,10 @@
         <v>103.59</v>
       </c>
       <c r="M141">
-        <v>13894207</v>
+        <v>13894208</v>
       </c>
       <c r="N141">
-        <v>8781990</v>
+        <v>8781994</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7137,10 +7137,10 @@
         <v>104.14</v>
       </c>
       <c r="M142">
-        <v>13750114</v>
+        <v>13750115</v>
       </c>
       <c r="N142">
-        <v>8776258</v>
+        <v>8776262</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7190,10 +7190,10 @@
         <v>104.75</v>
       </c>
       <c r="M143">
-        <v>13621983</v>
+        <v>13621984</v>
       </c>
       <c r="N143">
-        <v>8836700</v>
+        <v>8836704</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042508</v>
+        <v>9042512</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395128</v>
+        <v>9395132</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715992</v>
+        <v>9715996</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916823</v>
+        <v>9916827</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176456</v>
+        <v>10176460</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402037</v>
+        <v>10402041</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586437</v>
+        <v>10586441</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834350</v>
+        <v>10834354</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590409</v>
+        <v>590407</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,10 +9451,10 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817313</v>
+        <v>9817269</v>
       </c>
       <c r="H186">
-        <v>1208839</v>
+        <v>1208841</v>
       </c>
       <c r="I186">
         <v>127.36</v>
@@ -9469,10 +9469,10 @@
         <v>125.18</v>
       </c>
       <c r="M186">
-        <v>13889629</v>
+        <v>13889631</v>
       </c>
       <c r="N186">
-        <v>8211214</v>
+        <v>8211212</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9522,10 +9522,10 @@
         <v>125.48</v>
       </c>
       <c r="M187">
-        <v>13965862</v>
+        <v>13965864</v>
       </c>
       <c r="N187">
-        <v>8231205</v>
+        <v>8231203</v>
       </c>
       <c r="O187">
         <v>2506811</v>
@@ -9575,10 +9575,10 @@
         <v>125.89</v>
       </c>
       <c r="M188">
-        <v>14177095</v>
+        <v>14177097</v>
       </c>
       <c r="N188">
-        <v>8310991</v>
+        <v>8310989</v>
       </c>
       <c r="O188">
         <v>2528409</v>
@@ -9628,10 +9628,10 @@
         <v>126.37</v>
       </c>
       <c r="M189">
-        <v>14260403</v>
+        <v>14260405</v>
       </c>
       <c r="N189">
-        <v>8315351</v>
+        <v>8315349</v>
       </c>
       <c r="O189">
         <v>2521450</v>
@@ -9681,10 +9681,10 @@
         <v>126.79</v>
       </c>
       <c r="M190">
-        <v>14422730</v>
+        <v>14422732</v>
       </c>
       <c r="N190">
-        <v>8370932</v>
+        <v>8370930</v>
       </c>
       <c r="O190">
         <v>2540054</v>
@@ -9716,7 +9716,7 @@
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670729</v>
+        <v>8670727</v>
       </c>
       <c r="H191">
         <v>1073113</v>
@@ -9734,10 +9734,10 @@
         <v>127.14</v>
       </c>
       <c r="M191">
-        <v>14527940</v>
+        <v>14527942</v>
       </c>
       <c r="N191">
-        <v>8368473</v>
+        <v>8368471</v>
       </c>
       <c r="O191">
         <v>2551081</v>
@@ -9787,10 +9787,10 @@
         <v>127.59</v>
       </c>
       <c r="M192">
-        <v>14532715</v>
+        <v>14532717</v>
       </c>
       <c r="N192">
-        <v>8290047</v>
+        <v>8290045</v>
       </c>
       <c r="O192">
         <v>2547703</v>
@@ -9840,10 +9840,10 @@
         <v>128.14</v>
       </c>
       <c r="M193">
-        <v>14761238</v>
+        <v>14761240</v>
       </c>
       <c r="N193">
-        <v>8365139</v>
+        <v>8365137</v>
       </c>
       <c r="O193">
         <v>2572351</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729049</v>
+        <v>14729048</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9893,10 +9893,10 @@
         <v>128.88</v>
       </c>
       <c r="M194">
-        <v>14843919</v>
+        <v>14843921</v>
       </c>
       <c r="N194">
-        <v>8388026</v>
+        <v>8388024</v>
       </c>
       <c r="O194">
         <v>2570151</v>
@@ -9946,10 +9946,10 @@
         <v>129.54</v>
       </c>
       <c r="M195">
-        <v>14888849</v>
+        <v>14888851</v>
       </c>
       <c r="N195">
-        <v>8325498</v>
+        <v>8325496</v>
       </c>
       <c r="O195">
         <v>2571040</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097738</v>
+        <v>13097736</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9999,10 +9999,10 @@
         <v>130.2</v>
       </c>
       <c r="M196">
-        <v>14967531</v>
+        <v>14967533</v>
       </c>
       <c r="N196">
-        <v>8319994</v>
+        <v>8319992</v>
       </c>
       <c r="O196">
         <v>2563114</v>
@@ -10052,10 +10052,10 @@
         <v>130.86</v>
       </c>
       <c r="M197">
-        <v>15089675</v>
+        <v>15089677</v>
       </c>
       <c r="N197">
-        <v>8341458</v>
+        <v>8341456</v>
       </c>
       <c r="O197">
         <v>2566569</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210438</v>
+        <v>210437</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10270,7 +10270,7 @@
         <v>8368337</v>
       </c>
       <c r="O201">
-        <v>2605541</v>
+        <v>2605540</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071165</v>
+        <v>10071163</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10323,7 +10323,7 @@
         <v>8381894</v>
       </c>
       <c r="O202">
-        <v>2635458</v>
+        <v>2635457</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851261</v>
+        <v>9851253</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650960</v>
+        <v>2650959</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658782</v>
+        <v>2658781</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687331</v>
+        <v>2687330</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682385</v>
+        <v>2682384</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694736</v>
+        <v>2694735</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719319</v>
+        <v>2719318</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707761</v>
+        <v>2707760</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680326</v>
+        <v>2680325</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671969</v>
+        <v>2671968</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637231</v>
+        <v>2637230</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361134</v>
+        <v>1361133</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588982</v>
+        <v>11588977</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -35195,7 +35195,7 @@
         <v>45504</v>
       </c>
       <c r="B656">
-        <v>1066995</v>
+        <v>1066057</v>
       </c>
       <c r="C656">
         <v>1901</v>
@@ -35204,10 +35204,10 @@
         <v>522125</v>
       </c>
       <c r="E656">
-        <v>181906</v>
+        <v>181903</v>
       </c>
       <c r="F656">
-        <v>8487703</v>
+        <v>8487700</v>
       </c>
       <c r="G656">
         <v>7347349</v>
@@ -35234,7 +35234,7 @@
         <v>5258456</v>
       </c>
       <c r="O656">
-        <v>1978711</v>
+        <v>1978708</v>
       </c>
       <c r="P656">
         <v>5459</v>
@@ -35251,7 +35251,7 @@
         <v>45535</v>
       </c>
       <c r="B657">
-        <v>849175</v>
+        <v>848669</v>
       </c>
       <c r="C657">
         <v>1817.9</v>
@@ -35263,7 +35263,7 @@
         <v>164606</v>
       </c>
       <c r="F657">
-        <v>7586004</v>
+        <v>7586002</v>
       </c>
       <c r="G657">
         <v>6466287</v>
@@ -35290,7 +35290,7 @@
         <v>5241206</v>
       </c>
       <c r="O657">
-        <v>1987195</v>
+        <v>1987192</v>
       </c>
       <c r="P657">
         <v>5473</v>
@@ -35299,7 +35299,7 @@
         <v>14916</v>
       </c>
       <c r="R657">
-        <v>456781</v>
+        <v>458308</v>
       </c>
     </row>
     <row r="658">
@@ -35307,55 +35307,55 @@
         <v>45565</v>
       </c>
       <c r="B658">
-        <v>791205</v>
+        <v>792215</v>
       </c>
       <c r="C658">
         <v>1615.9</v>
       </c>
       <c r="D658">
-        <v>350314</v>
+        <v>351269</v>
       </c>
       <c r="E658">
-        <v>170666</v>
+        <v>169593</v>
       </c>
       <c r="F658">
-        <v>7596697</v>
+        <v>7613585</v>
       </c>
       <c r="G658">
-        <v>6214533</v>
+        <v>6230313</v>
       </c>
       <c r="H658">
-        <v>2747102</v>
+        <v>2752859</v>
       </c>
       <c r="I658">
-        <v>451.14</v>
+        <v>450.94</v>
       </c>
       <c r="J658">
-        <v>38.65</v>
+        <v>38.63</v>
       </c>
       <c r="K658">
         <v>15.3</v>
       </c>
       <c r="L658">
-        <v>451.24</v>
+        <v>451.22</v>
       </c>
       <c r="M658">
-        <v>35645929</v>
+        <v>35651687</v>
       </c>
       <c r="N658">
-        <v>5255014</v>
+        <v>5255969</v>
       </c>
       <c r="O658">
-        <v>2016704</v>
+        <v>2015628</v>
       </c>
       <c r="P658">
-        <v>5486</v>
+        <v>5495</v>
       </c>
       <c r="Q658">
-        <v>14930</v>
+        <v>14923</v>
       </c>
       <c r="R658">
-        <v>458816</v>
+        <v>463450</v>
       </c>
     </row>
     <row r="659">
@@ -35363,49 +35363,105 @@
         <v>45596</v>
       </c>
       <c r="B659">
-        <v>976368</v>
+        <v>976845</v>
+      </c>
+      <c r="C659">
+        <v>1620.6</v>
       </c>
       <c r="D659">
-        <v>385592</v>
+        <v>392516</v>
       </c>
       <c r="E659">
-        <v>171197</v>
+        <v>165272</v>
       </c>
       <c r="F659">
-        <v>6739642</v>
+        <v>6904022</v>
       </c>
       <c r="G659">
-        <v>5767741</v>
+        <v>5923759</v>
       </c>
       <c r="H659">
-        <v>2620579</v>
+        <v>2667050</v>
       </c>
       <c r="I659">
-        <v>463.4</v>
+        <v>458.86</v>
       </c>
       <c r="J659">
-        <v>38.57</v>
+        <v>38.44</v>
       </c>
       <c r="K659">
-        <v>15.19</v>
+        <v>15.2</v>
       </c>
       <c r="L659">
-        <v>452.48</v>
+        <v>452.16</v>
       </c>
       <c r="M659">
-        <v>35588233</v>
+        <v>35640460</v>
       </c>
       <c r="N659">
-        <v>5273189</v>
+        <v>5281068</v>
       </c>
       <c r="O659">
-        <v>2018192</v>
+        <v>2011191</v>
       </c>
       <c r="P659">
-        <v>5504</v>
+        <v>5514</v>
       </c>
       <c r="Q659">
-        <v>14951</v>
+        <v>14940</v>
+      </c>
+      <c r="R659">
+        <v>460885</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B660">
+        <v>940144</v>
+      </c>
+      <c r="D660">
+        <v>358357</v>
+      </c>
+      <c r="E660">
+        <v>151095</v>
+      </c>
+      <c r="F660">
+        <v>6433063</v>
+      </c>
+      <c r="G660">
+        <v>5280371</v>
+      </c>
+      <c r="H660">
+        <v>2450076</v>
+      </c>
+      <c r="I660">
+        <v>472.55</v>
+      </c>
+      <c r="J660">
+        <v>38.51</v>
+      </c>
+      <c r="K660">
+        <v>15.22</v>
+      </c>
+      <c r="L660">
+        <v>453.55</v>
+      </c>
+      <c r="M660">
+        <v>35581825</v>
+      </c>
+      <c r="N660">
+        <v>5246097</v>
+      </c>
+      <c r="O660">
+        <v>2011187</v>
+      </c>
+      <c r="P660">
+        <v>5534</v>
+      </c>
+      <c r="Q660">
+        <v>14955</v>
       </c>
     </row>
   </sheetData>

--- a/data/monthly_state_ui.xlsx
+++ b/data/monthly_state_ui.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R660"/>
+  <dimension ref="A1:R661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4775,43 +4775,43 @@
         <v>28521</v>
       </c>
       <c r="B98">
-        <v>2273261</v>
+        <v>2319209</v>
       </c>
       <c r="D98">
-        <v>1063136</v>
+        <v>1088112</v>
       </c>
       <c r="E98">
-        <v>210661</v>
+        <v>212712</v>
       </c>
       <c r="F98">
-        <v>13886951</v>
+        <v>14034114</v>
       </c>
       <c r="G98">
-        <v>11076384</v>
+        <v>11214108</v>
       </c>
       <c r="H98">
-        <v>904868</v>
+        <v>919558</v>
       </c>
       <c r="I98">
-        <v>84.12</v>
+        <v>84.44</v>
       </c>
       <c r="J98">
-        <v>32.33</v>
+        <v>32.35</v>
       </c>
       <c r="K98">
-        <v>14.31</v>
+        <v>14.28</v>
       </c>
       <c r="L98">
-        <v>79.33</v>
+        <v>79.36</v>
       </c>
       <c r="M98">
-        <v>8643090</v>
+        <v>8657780</v>
       </c>
       <c r="N98">
-        <v>7816720</v>
+        <v>7841696</v>
       </c>
       <c r="O98">
-        <v>2726125</v>
+        <v>2728176</v>
       </c>
       <c r="P98">
         <v>3429</v>
@@ -4849,22 +4849,22 @@
         <v>85.8</v>
       </c>
       <c r="J99">
-        <v>31.64</v>
+        <v>31.67</v>
       </c>
       <c r="K99">
-        <v>14.38</v>
+        <v>14.36</v>
       </c>
       <c r="L99">
-        <v>79.84</v>
+        <v>79.88</v>
       </c>
       <c r="M99">
-        <v>8586177</v>
+        <v>8600867</v>
       </c>
       <c r="N99">
-        <v>7675188</v>
+        <v>7700164</v>
       </c>
       <c r="O99">
-        <v>2658765</v>
+        <v>2660816</v>
       </c>
       <c r="P99">
         <v>3442</v>
@@ -4902,22 +4902,22 @@
         <v>85.48</v>
       </c>
       <c r="J100">
-        <v>30.81</v>
+        <v>30.83</v>
       </c>
       <c r="K100">
-        <v>14.26</v>
+        <v>14.23</v>
       </c>
       <c r="L100">
-        <v>80.48999999999999</v>
+        <v>80.52</v>
       </c>
       <c r="M100">
-        <v>8552550</v>
+        <v>8567240</v>
       </c>
       <c r="N100">
-        <v>7655474</v>
+        <v>7680450</v>
       </c>
       <c r="O100">
-        <v>2569595</v>
+        <v>2571646</v>
       </c>
       <c r="P100">
         <v>3456</v>
@@ -4955,22 +4955,22 @@
         <v>84.33</v>
       </c>
       <c r="J101">
-        <v>30.25</v>
+        <v>30.28</v>
       </c>
       <c r="K101">
-        <v>14.13</v>
+        <v>14.1</v>
       </c>
       <c r="L101">
-        <v>80.95</v>
+        <v>80.98</v>
       </c>
       <c r="M101">
-        <v>8496274</v>
+        <v>8510963</v>
       </c>
       <c r="N101">
-        <v>7630816</v>
+        <v>7655792</v>
       </c>
       <c r="O101">
-        <v>2496711</v>
+        <v>2498762</v>
       </c>
       <c r="P101">
         <v>3472</v>
@@ -5008,22 +5008,22 @@
         <v>82.70999999999999</v>
       </c>
       <c r="J102">
-        <v>30.08</v>
+        <v>30.1</v>
       </c>
       <c r="K102">
-        <v>14.07</v>
+        <v>14.04</v>
       </c>
       <c r="L102">
-        <v>81.34999999999999</v>
+        <v>81.38</v>
       </c>
       <c r="M102">
-        <v>8469976</v>
+        <v>8484666</v>
       </c>
       <c r="N102">
-        <v>7605385</v>
+        <v>7630361</v>
       </c>
       <c r="O102">
-        <v>2447767</v>
+        <v>2449818</v>
       </c>
       <c r="P102">
         <v>3483</v>
@@ -5061,22 +5061,22 @@
         <v>81.7</v>
       </c>
       <c r="J103">
-        <v>29.68</v>
+        <v>29.7</v>
       </c>
       <c r="K103">
-        <v>13.87</v>
+        <v>13.84</v>
       </c>
       <c r="L103">
-        <v>81.73999999999999</v>
+        <v>81.78</v>
       </c>
       <c r="M103">
-        <v>8390315</v>
+        <v>8405004</v>
       </c>
       <c r="N103">
-        <v>7610191</v>
+        <v>7635167</v>
       </c>
       <c r="O103">
-        <v>2369800</v>
+        <v>2371851</v>
       </c>
       <c r="P103">
         <v>3482</v>
@@ -5114,22 +5114,22 @@
         <v>80.67</v>
       </c>
       <c r="J104">
-        <v>29.5</v>
+        <v>29.44</v>
       </c>
       <c r="K104">
-        <v>13.74</v>
+        <v>13.71</v>
       </c>
       <c r="L104">
-        <v>82.12</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="M104">
-        <v>8353740</v>
+        <v>8368430</v>
       </c>
       <c r="N104">
-        <v>7610967</v>
+        <v>7635943</v>
       </c>
       <c r="O104">
-        <v>2306253</v>
+        <v>2308304</v>
       </c>
       <c r="P104">
         <v>3473</v>
@@ -5167,22 +5167,22 @@
         <v>81.40000000000001</v>
       </c>
       <c r="J105">
-        <v>29.07</v>
+        <v>29</v>
       </c>
       <c r="K105">
-        <v>13.57</v>
+        <v>13.54</v>
       </c>
       <c r="L105">
-        <v>82.48999999999999</v>
+        <v>82.52</v>
       </c>
       <c r="M105">
-        <v>8358617</v>
+        <v>8373307</v>
       </c>
       <c r="N105">
-        <v>7677889</v>
+        <v>7702865</v>
       </c>
       <c r="O105">
-        <v>2230966</v>
+        <v>2233017</v>
       </c>
       <c r="P105">
         <v>3475</v>
@@ -5220,22 +5220,22 @@
         <v>81.8</v>
       </c>
       <c r="J106">
-        <v>28.36</v>
+        <v>28.29</v>
       </c>
       <c r="K106">
-        <v>13.52</v>
+        <v>13.5</v>
       </c>
       <c r="L106">
-        <v>82.78</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="M106">
-        <v>8313960</v>
+        <v>8328649</v>
       </c>
       <c r="N106">
-        <v>7636142</v>
+        <v>7661118</v>
       </c>
       <c r="O106">
-        <v>2171024</v>
+        <v>2173075</v>
       </c>
       <c r="P106">
         <v>3484</v>
@@ -5273,22 +5273,22 @@
         <v>83.42</v>
       </c>
       <c r="J107">
-        <v>27.8</v>
+        <v>27.73</v>
       </c>
       <c r="K107">
-        <v>13.48</v>
+        <v>13.45</v>
       </c>
       <c r="L107">
-        <v>83.03</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="M107">
-        <v>8307255</v>
+        <v>8321944</v>
       </c>
       <c r="N107">
-        <v>7633029</v>
+        <v>7658005</v>
       </c>
       <c r="O107">
-        <v>2121252</v>
+        <v>2123303</v>
       </c>
       <c r="P107">
         <v>3488</v>
@@ -5326,22 +5326,22 @@
         <v>83.88</v>
       </c>
       <c r="J108">
-        <v>27.26</v>
+        <v>27.2</v>
       </c>
       <c r="K108">
-        <v>13.42</v>
+        <v>13.39</v>
       </c>
       <c r="L108">
-        <v>83.3</v>
+        <v>83.33</v>
       </c>
       <c r="M108">
-        <v>8263904</v>
+        <v>8278594</v>
       </c>
       <c r="N108">
-        <v>7603593</v>
+        <v>7628569</v>
       </c>
       <c r="O108">
-        <v>2073377</v>
+        <v>2075428</v>
       </c>
       <c r="P108">
         <v>3494</v>
@@ -5379,22 +5379,22 @@
         <v>86.16</v>
       </c>
       <c r="J109">
-        <v>26.68</v>
+        <v>26.62</v>
       </c>
       <c r="K109">
-        <v>13.34</v>
+        <v>13.31</v>
       </c>
       <c r="L109">
-        <v>83.67</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="M109">
-        <v>8212238</v>
+        <v>8226928</v>
       </c>
       <c r="N109">
-        <v>7568310</v>
+        <v>7593286</v>
       </c>
       <c r="O109">
-        <v>2030439</v>
+        <v>2032490</v>
       </c>
       <c r="P109">
         <v>3500</v>
@@ -5432,7 +5432,7 @@
         <v>88.3</v>
       </c>
       <c r="J110">
-        <v>26.32</v>
+        <v>26.24</v>
       </c>
       <c r="K110">
         <v>13.2</v>
@@ -5485,7 +5485,7 @@
         <v>90.31</v>
       </c>
       <c r="J111">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="K111">
         <v>13.26</v>
@@ -5538,7 +5538,7 @@
         <v>90.28</v>
       </c>
       <c r="J112">
-        <v>25.83</v>
+        <v>25.74</v>
       </c>
       <c r="K112">
         <v>13.21</v>
@@ -5591,7 +5591,7 @@
         <v>89.28</v>
       </c>
       <c r="J113">
-        <v>25.75</v>
+        <v>25.66</v>
       </c>
       <c r="K113">
         <v>13.19</v>
@@ -5644,7 +5644,7 @@
         <v>88.37</v>
       </c>
       <c r="J114">
-        <v>25.87</v>
+        <v>25.78</v>
       </c>
       <c r="K114">
         <v>13.19</v>
@@ -5697,7 +5697,7 @@
         <v>87.25</v>
       </c>
       <c r="J115">
-        <v>25.8</v>
+        <v>25.72</v>
       </c>
       <c r="K115">
         <v>13.19</v>
@@ -6592,10 +6592,10 @@
         <v>9516801</v>
       </c>
       <c r="H132">
-        <v>935466</v>
+        <v>887414</v>
       </c>
       <c r="I132">
-        <v>100.71</v>
+        <v>95.63</v>
       </c>
       <c r="J132">
         <v>32.75</v>
@@ -6604,10 +6604,10 @@
         <v>14.67</v>
       </c>
       <c r="L132">
-        <v>99.05</v>
+        <v>98.72</v>
       </c>
       <c r="M132">
-        <v>14067013</v>
+        <v>14018961</v>
       </c>
       <c r="N132">
         <v>9919645</v>
@@ -6657,10 +6657,10 @@
         <v>14.91</v>
       </c>
       <c r="L133">
-        <v>99.53</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="M133">
-        <v>14469466</v>
+        <v>14421413</v>
       </c>
       <c r="N133">
         <v>9992123</v>
@@ -6710,10 +6710,10 @@
         <v>15.02</v>
       </c>
       <c r="L134">
-        <v>100.2</v>
+        <v>99.87</v>
       </c>
       <c r="M134">
-        <v>14605101</v>
+        <v>14557049</v>
       </c>
       <c r="N134">
         <v>9946214</v>
@@ -6763,10 +6763,10 @@
         <v>15.11</v>
       </c>
       <c r="L135">
-        <v>100.72</v>
+        <v>100.4</v>
       </c>
       <c r="M135">
-        <v>14690538</v>
+        <v>14642486</v>
       </c>
       <c r="N135">
         <v>9890722</v>
@@ -6816,10 +6816,10 @@
         <v>15.16</v>
       </c>
       <c r="L136">
-        <v>101.31</v>
+        <v>100.99</v>
       </c>
       <c r="M136">
-        <v>14866997</v>
+        <v>14818945</v>
       </c>
       <c r="N136">
         <v>9919839</v>
@@ -6869,10 +6869,10 @@
         <v>15.27</v>
       </c>
       <c r="L137">
-        <v>101.83</v>
+        <v>101.51</v>
       </c>
       <c r="M137">
-        <v>14861515</v>
+        <v>14813463</v>
       </c>
       <c r="N137">
         <v>9793604</v>
@@ -6922,10 +6922,10 @@
         <v>15.52</v>
       </c>
       <c r="L138">
-        <v>102.25</v>
+        <v>101.92</v>
       </c>
       <c r="M138">
-        <v>14670907</v>
+        <v>14622855</v>
       </c>
       <c r="N138">
         <v>9476838</v>
@@ -6975,10 +6975,10 @@
         <v>15.69</v>
       </c>
       <c r="L139">
-        <v>102.61</v>
+        <v>102.27</v>
       </c>
       <c r="M139">
-        <v>14467132</v>
+        <v>14419080</v>
       </c>
       <c r="N139">
         <v>9214474</v>
@@ -7004,7 +7004,7 @@
         <v>2112151</v>
       </c>
       <c r="D140">
-        <v>823643</v>
+        <v>815195</v>
       </c>
       <c r="E140">
         <v>246909</v>
@@ -7025,16 +7025,16 @@
         <v>32.99</v>
       </c>
       <c r="K140">
-        <v>15.74</v>
+        <v>15.75</v>
       </c>
       <c r="L140">
-        <v>103.08</v>
+        <v>102.73</v>
       </c>
       <c r="M140">
-        <v>14131912</v>
+        <v>14083860</v>
       </c>
       <c r="N140">
-        <v>8935479</v>
+        <v>8927031</v>
       </c>
       <c r="O140">
         <v>3281695</v>
@@ -7078,16 +7078,16 @@
         <v>32.76</v>
       </c>
       <c r="K141">
-        <v>15.66</v>
+        <v>15.68</v>
       </c>
       <c r="L141">
-        <v>103.59</v>
+        <v>103.24</v>
       </c>
       <c r="M141">
-        <v>13894208</v>
+        <v>13846156</v>
       </c>
       <c r="N141">
-        <v>8781994</v>
+        <v>8773546</v>
       </c>
       <c r="O141">
         <v>3240512</v>
@@ -7131,16 +7131,16 @@
         <v>32.19</v>
       </c>
       <c r="K142">
-        <v>15.43</v>
+        <v>15.45</v>
       </c>
       <c r="L142">
-        <v>104.14</v>
+        <v>103.79</v>
       </c>
       <c r="M142">
-        <v>13750115</v>
+        <v>13702063</v>
       </c>
       <c r="N142">
-        <v>8776262</v>
+        <v>8767814</v>
       </c>
       <c r="O142">
         <v>3193123</v>
@@ -7184,16 +7184,16 @@
         <v>31.67</v>
       </c>
       <c r="K143">
-        <v>15.1</v>
+        <v>15.11</v>
       </c>
       <c r="L143">
-        <v>104.75</v>
+        <v>104.39</v>
       </c>
       <c r="M143">
-        <v>13621984</v>
+        <v>13573932</v>
       </c>
       <c r="N143">
-        <v>8836704</v>
+        <v>8828256</v>
       </c>
       <c r="O143">
         <v>3101549</v>
@@ -7237,7 +7237,7 @@
         <v>32.12</v>
       </c>
       <c r="K144">
-        <v>14.81</v>
+        <v>14.83</v>
       </c>
       <c r="L144">
         <v>105.47</v>
@@ -7246,7 +7246,7 @@
         <v>13767328</v>
       </c>
       <c r="N144">
-        <v>9042512</v>
+        <v>9034064</v>
       </c>
       <c r="O144">
         <v>3043526</v>
@@ -7290,7 +7290,7 @@
         <v>32.44</v>
       </c>
       <c r="K145">
-        <v>14.47</v>
+        <v>14.48</v>
       </c>
       <c r="L145">
         <v>106.61</v>
@@ -7299,7 +7299,7 @@
         <v>14113290</v>
       </c>
       <c r="N145">
-        <v>9395132</v>
+        <v>9386684</v>
       </c>
       <c r="O145">
         <v>2989177</v>
@@ -7340,10 +7340,10 @@
         <v>114.95</v>
       </c>
       <c r="J146">
-        <v>32.88</v>
+        <v>32.91</v>
       </c>
       <c r="K146">
-        <v>14.17</v>
+        <v>14.18</v>
       </c>
       <c r="L146">
         <v>107.85</v>
@@ -7352,7 +7352,7 @@
         <v>14458798</v>
       </c>
       <c r="N146">
-        <v>9715996</v>
+        <v>9707548</v>
       </c>
       <c r="O146">
         <v>2937578</v>
@@ -7393,10 +7393,10 @@
         <v>117.46</v>
       </c>
       <c r="J147">
-        <v>33.36</v>
+        <v>33.39</v>
       </c>
       <c r="K147">
-        <v>14.16</v>
+        <v>14.17</v>
       </c>
       <c r="L147">
         <v>109.23</v>
@@ -7405,7 +7405,7 @@
         <v>14926884</v>
       </c>
       <c r="N147">
-        <v>9916827</v>
+        <v>9908379</v>
       </c>
       <c r="O147">
         <v>2929529</v>
@@ -7446,10 +7446,10 @@
         <v>117.44</v>
       </c>
       <c r="J148">
-        <v>33.95</v>
+        <v>33.99</v>
       </c>
       <c r="K148">
-        <v>14.25</v>
+        <v>14.26</v>
       </c>
       <c r="L148">
         <v>110.6</v>
@@ -7458,7 +7458,7 @@
         <v>15607688</v>
       </c>
       <c r="N148">
-        <v>10176460</v>
+        <v>10168012</v>
       </c>
       <c r="O148">
         <v>2979966</v>
@@ -7499,10 +7499,10 @@
         <v>117.9</v>
       </c>
       <c r="J149">
-        <v>34.55</v>
+        <v>34.58</v>
       </c>
       <c r="K149">
-        <v>14.35</v>
+        <v>14.36</v>
       </c>
       <c r="L149">
         <v>111.76</v>
@@ -7511,7 +7511,7 @@
         <v>16230878</v>
       </c>
       <c r="N149">
-        <v>10402041</v>
+        <v>10393593</v>
       </c>
       <c r="O149">
         <v>3052828</v>
@@ -7552,10 +7552,10 @@
         <v>118.33</v>
       </c>
       <c r="J150">
-        <v>34.78</v>
+        <v>34.81</v>
       </c>
       <c r="K150">
-        <v>14.46</v>
+        <v>14.47</v>
       </c>
       <c r="L150">
         <v>112.75</v>
@@ -7564,7 +7564,7 @@
         <v>16798094</v>
       </c>
       <c r="N150">
-        <v>10586441</v>
+        <v>10577993</v>
       </c>
       <c r="O150">
         <v>3145040</v>
@@ -7605,10 +7605,10 @@
         <v>118.32</v>
       </c>
       <c r="J151">
-        <v>34.9</v>
+        <v>34.93</v>
       </c>
       <c r="K151">
-        <v>14.61</v>
+        <v>14.62</v>
       </c>
       <c r="L151">
         <v>113.8</v>
@@ -7617,7 +7617,7 @@
         <v>17524614</v>
       </c>
       <c r="N151">
-        <v>10834354</v>
+        <v>10825906</v>
       </c>
       <c r="O151">
         <v>3279005</v>
@@ -7658,7 +7658,7 @@
         <v>117.67</v>
       </c>
       <c r="J152">
-        <v>34.91</v>
+        <v>34.94</v>
       </c>
       <c r="K152">
         <v>14.74</v>
@@ -7711,7 +7711,7 @@
         <v>119.22</v>
       </c>
       <c r="J153">
-        <v>35.71</v>
+        <v>35.74</v>
       </c>
       <c r="K153">
         <v>14.94</v>
@@ -7764,7 +7764,7 @@
         <v>121.03</v>
       </c>
       <c r="J154">
-        <v>36.22</v>
+        <v>36.25</v>
       </c>
       <c r="K154">
         <v>15.13</v>
@@ -7817,7 +7817,7 @@
         <v>122.9</v>
       </c>
       <c r="J155">
-        <v>36.85</v>
+        <v>36.88</v>
       </c>
       <c r="K155">
         <v>15.32</v>
@@ -7870,7 +7870,7 @@
         <v>123.46</v>
       </c>
       <c r="J156">
-        <v>37.94</v>
+        <v>37.97</v>
       </c>
       <c r="K156">
         <v>15.57</v>
@@ -7923,7 +7923,7 @@
         <v>123.55</v>
       </c>
       <c r="J157">
-        <v>38.53</v>
+        <v>38.56</v>
       </c>
       <c r="K157">
         <v>15.92</v>
@@ -9442,7 +9442,7 @@
         <v>1488338</v>
       </c>
       <c r="D186">
-        <v>590407</v>
+        <v>554334</v>
       </c>
       <c r="E186">
         <v>232183</v>
@@ -9451,28 +9451,28 @@
         <v>10937527</v>
       </c>
       <c r="G186">
-        <v>9817269</v>
+        <v>9089505</v>
       </c>
       <c r="H186">
-        <v>1208841</v>
+        <v>1123128</v>
       </c>
       <c r="I186">
-        <v>127.36</v>
+        <v>127.67</v>
       </c>
       <c r="J186">
         <v>32.49</v>
       </c>
       <c r="K186">
-        <v>13.96</v>
+        <v>13.94</v>
       </c>
       <c r="L186">
-        <v>125.18</v>
+        <v>125.19</v>
       </c>
       <c r="M186">
-        <v>13889631</v>
+        <v>13803918</v>
       </c>
       <c r="N186">
-        <v>8211212</v>
+        <v>8175139</v>
       </c>
       <c r="O186">
         <v>2510371</v>
@@ -9498,7 +9498,7 @@
         <v>498855</v>
       </c>
       <c r="E187">
-        <v>194076</v>
+        <v>196723</v>
       </c>
       <c r="F187">
         <v>9421892</v>
@@ -9513,22 +9513,22 @@
         <v>126.49</v>
       </c>
       <c r="J187">
-        <v>32.38</v>
+        <v>32.41</v>
       </c>
       <c r="K187">
-        <v>13.97</v>
+        <v>13.94</v>
       </c>
       <c r="L187">
-        <v>125.48</v>
+        <v>125.49</v>
       </c>
       <c r="M187">
-        <v>13965864</v>
+        <v>13880151</v>
       </c>
       <c r="N187">
-        <v>8231203</v>
+        <v>8195130</v>
       </c>
       <c r="O187">
-        <v>2506811</v>
+        <v>2509458</v>
       </c>
       <c r="P187">
         <v>3825</v>
@@ -9566,22 +9566,22 @@
         <v>125.79</v>
       </c>
       <c r="J188">
-        <v>31.96</v>
+        <v>32</v>
       </c>
       <c r="K188">
-        <v>14.01</v>
+        <v>13.98</v>
       </c>
       <c r="L188">
-        <v>125.89</v>
+        <v>125.91</v>
       </c>
       <c r="M188">
-        <v>14177097</v>
+        <v>14091384</v>
       </c>
       <c r="N188">
-        <v>8310989</v>
+        <v>8274916</v>
       </c>
       <c r="O188">
-        <v>2528409</v>
+        <v>2531056</v>
       </c>
       <c r="P188">
         <v>3837</v>
@@ -9604,7 +9604,7 @@
         <v>631919</v>
       </c>
       <c r="E189">
-        <v>204865</v>
+        <v>207353</v>
       </c>
       <c r="F189">
         <v>10180433</v>
@@ -9619,22 +9619,22 @@
         <v>126.88</v>
       </c>
       <c r="J189">
-        <v>31.5</v>
+        <v>31.56</v>
       </c>
       <c r="K189">
-        <v>14.03</v>
+        <v>14.01</v>
       </c>
       <c r="L189">
-        <v>126.37</v>
+        <v>126.39</v>
       </c>
       <c r="M189">
-        <v>14260405</v>
+        <v>14174692</v>
       </c>
       <c r="N189">
-        <v>8315349</v>
+        <v>8279276</v>
       </c>
       <c r="O189">
-        <v>2521450</v>
+        <v>2526585</v>
       </c>
       <c r="P189">
         <v>3841</v>
@@ -9654,10 +9654,10 @@
         <v>1343308</v>
       </c>
       <c r="D190">
-        <v>509987</v>
+        <v>510005</v>
       </c>
       <c r="E190">
-        <v>181942</v>
+        <v>184062</v>
       </c>
       <c r="F190">
         <v>9164177</v>
@@ -9672,22 +9672,22 @@
         <v>128.7</v>
       </c>
       <c r="J190">
-        <v>31.47</v>
+        <v>31.56</v>
       </c>
       <c r="K190">
-        <v>14.06</v>
+        <v>14.03</v>
       </c>
       <c r="L190">
-        <v>126.79</v>
+        <v>126.81</v>
       </c>
       <c r="M190">
-        <v>14422732</v>
+        <v>14337019</v>
       </c>
       <c r="N190">
-        <v>8370930</v>
+        <v>8334875</v>
       </c>
       <c r="O190">
-        <v>2540054</v>
+        <v>2547309</v>
       </c>
       <c r="P190">
         <v>3855</v>
@@ -9707,40 +9707,40 @@
         <v>1667576</v>
       </c>
       <c r="D191">
-        <v>573567</v>
+        <v>633431</v>
       </c>
       <c r="E191">
-        <v>207671</v>
+        <v>234627</v>
       </c>
       <c r="F191">
         <v>9966680</v>
       </c>
       <c r="G191">
-        <v>8670727</v>
+        <v>9984867</v>
       </c>
       <c r="H191">
-        <v>1073113</v>
+        <v>1652804</v>
       </c>
       <c r="I191">
-        <v>128.59</v>
+        <v>170.59</v>
       </c>
       <c r="J191">
-        <v>31.29</v>
+        <v>31.71</v>
       </c>
       <c r="K191">
-        <v>14.13</v>
+        <v>14.16</v>
       </c>
       <c r="L191">
-        <v>127.14</v>
+        <v>130.66</v>
       </c>
       <c r="M191">
-        <v>14527942</v>
+        <v>15021920</v>
       </c>
       <c r="N191">
-        <v>8368471</v>
+        <v>8392280</v>
       </c>
       <c r="O191">
-        <v>2551081</v>
+        <v>2585292</v>
       </c>
       <c r="P191">
         <v>3864</v>
@@ -9778,22 +9778,22 @@
         <v>130.9</v>
       </c>
       <c r="J192">
-        <v>31.03</v>
+        <v>31.58</v>
       </c>
       <c r="K192">
-        <v>14.22</v>
+        <v>14.25</v>
       </c>
       <c r="L192">
-        <v>127.59</v>
+        <v>131.12</v>
       </c>
       <c r="M192">
-        <v>14532717</v>
+        <v>15026695</v>
       </c>
       <c r="N192">
-        <v>8290045</v>
+        <v>8313854</v>
       </c>
       <c r="O192">
-        <v>2547703</v>
+        <v>2581914</v>
       </c>
       <c r="P192">
         <v>3867</v>
@@ -9831,22 +9831,22 @@
         <v>132.24</v>
       </c>
       <c r="J193">
-        <v>31.25</v>
+        <v>31.81</v>
       </c>
       <c r="K193">
-        <v>14.26</v>
+        <v>14.29</v>
       </c>
       <c r="L193">
-        <v>128.14</v>
+        <v>131.63</v>
       </c>
       <c r="M193">
-        <v>14761240</v>
+        <v>15255218</v>
       </c>
       <c r="N193">
-        <v>8365137</v>
+        <v>8388946</v>
       </c>
       <c r="O193">
-        <v>2572351</v>
+        <v>2606562</v>
       </c>
       <c r="P193">
         <v>3862</v>
@@ -9872,7 +9872,7 @@
         <v>235008</v>
       </c>
       <c r="F194">
-        <v>14729048</v>
+        <v>14727910</v>
       </c>
       <c r="G194">
         <v>13027499</v>
@@ -9884,22 +9884,22 @@
         <v>133.57</v>
       </c>
       <c r="J194">
-        <v>30.92</v>
+        <v>31.47</v>
       </c>
       <c r="K194">
-        <v>14.23</v>
+        <v>14.26</v>
       </c>
       <c r="L194">
-        <v>128.88</v>
+        <v>132.37</v>
       </c>
       <c r="M194">
-        <v>14843921</v>
+        <v>15337899</v>
       </c>
       <c r="N194">
-        <v>8388024</v>
+        <v>8411833</v>
       </c>
       <c r="O194">
-        <v>2570151</v>
+        <v>2604362</v>
       </c>
       <c r="P194">
         <v>3869</v>
@@ -9937,22 +9937,22 @@
         <v>135</v>
       </c>
       <c r="J195">
-        <v>30.92</v>
+        <v>31.47</v>
       </c>
       <c r="K195">
-        <v>14.31</v>
+        <v>14.34</v>
       </c>
       <c r="L195">
-        <v>129.54</v>
+        <v>133.03</v>
       </c>
       <c r="M195">
-        <v>14888851</v>
+        <v>15382830</v>
       </c>
       <c r="N195">
-        <v>8325496</v>
+        <v>8349305</v>
       </c>
       <c r="O195">
-        <v>2571040</v>
+        <v>2605251</v>
       </c>
       <c r="P195">
         <v>3875</v>
@@ -9978,7 +9978,7 @@
         <v>219934</v>
       </c>
       <c r="F196">
-        <v>13097736</v>
+        <v>13101136</v>
       </c>
       <c r="G196">
         <v>11730221</v>
@@ -9990,22 +9990,22 @@
         <v>134.8</v>
       </c>
       <c r="J196">
-        <v>30.62</v>
+        <v>31.16</v>
       </c>
       <c r="K196">
-        <v>14.32</v>
+        <v>14.35</v>
       </c>
       <c r="L196">
-        <v>130.2</v>
+        <v>133.69</v>
       </c>
       <c r="M196">
-        <v>14967533</v>
+        <v>15461511</v>
       </c>
       <c r="N196">
-        <v>8319992</v>
+        <v>8343801</v>
       </c>
       <c r="O196">
-        <v>2563114</v>
+        <v>2597325</v>
       </c>
       <c r="P196">
         <v>3873</v>
@@ -10043,22 +10043,22 @@
         <v>135.23</v>
       </c>
       <c r="J197">
-        <v>30.67</v>
+        <v>30.99</v>
       </c>
       <c r="K197">
-        <v>14.33</v>
+        <v>14.36</v>
       </c>
       <c r="L197">
-        <v>130.86</v>
+        <v>134.34</v>
       </c>
       <c r="M197">
-        <v>15089677</v>
+        <v>15583656</v>
       </c>
       <c r="N197">
-        <v>8341456</v>
+        <v>8365265</v>
       </c>
       <c r="O197">
-        <v>2566569</v>
+        <v>2600780</v>
       </c>
       <c r="P197">
         <v>3878</v>
@@ -10081,7 +10081,7 @@
         <v>579278</v>
       </c>
       <c r="E198">
-        <v>232984</v>
+        <v>235346</v>
       </c>
       <c r="F198">
         <v>10732540</v>
@@ -10096,22 +10096,22 @@
         <v>135.78</v>
       </c>
       <c r="J198">
-        <v>30.97</v>
+        <v>31.32</v>
       </c>
       <c r="K198">
-        <v>14.33</v>
+        <v>14.38</v>
       </c>
       <c r="L198">
-        <v>131.55</v>
+        <v>134.96</v>
       </c>
       <c r="M198">
-        <v>15141561</v>
+        <v>15721253</v>
       </c>
       <c r="N198">
-        <v>8330327</v>
+        <v>8390209</v>
       </c>
       <c r="O198">
-        <v>2567370</v>
+        <v>2603943</v>
       </c>
       <c r="P198">
         <v>3884</v>
@@ -10134,10 +10134,10 @@
         <v>525103</v>
       </c>
       <c r="E199">
-        <v>214625</v>
+        <v>216966</v>
       </c>
       <c r="F199">
-        <v>10187277</v>
+        <v>10183519</v>
       </c>
       <c r="G199">
         <v>9028611</v>
@@ -10149,22 +10149,22 @@
         <v>135.39</v>
       </c>
       <c r="J199">
-        <v>30.94</v>
+        <v>31.28</v>
       </c>
       <c r="K199">
-        <v>14.37</v>
+        <v>14.43</v>
       </c>
       <c r="L199">
-        <v>132.19</v>
+        <v>135.57</v>
       </c>
       <c r="M199">
-        <v>15309105</v>
+        <v>15888796</v>
       </c>
       <c r="N199">
-        <v>8356575</v>
+        <v>8416457</v>
       </c>
       <c r="O199">
-        <v>2587919</v>
+        <v>2624186</v>
       </c>
       <c r="P199">
         <v>3887</v>
@@ -10187,7 +10187,7 @@
         <v>735606</v>
       </c>
       <c r="E200">
-        <v>247047</v>
+        <v>249256</v>
       </c>
       <c r="F200">
         <v>11601024</v>
@@ -10202,22 +10202,22 @@
         <v>134.13</v>
       </c>
       <c r="J200">
-        <v>31</v>
+        <v>31.37</v>
       </c>
       <c r="K200">
-        <v>14.43</v>
+        <v>14.48</v>
       </c>
       <c r="L200">
-        <v>132.87</v>
+        <v>136.23</v>
       </c>
       <c r="M200">
-        <v>15440715</v>
+        <v>16020406</v>
       </c>
       <c r="N200">
-        <v>8350594</v>
+        <v>8410476</v>
       </c>
       <c r="O200">
-        <v>2599968</v>
+        <v>2638444</v>
       </c>
       <c r="P200">
         <v>3886</v>
@@ -10240,7 +10240,7 @@
         <v>649662</v>
       </c>
       <c r="E201">
-        <v>210437</v>
+        <v>212491</v>
       </c>
       <c r="F201">
         <v>10189513</v>
@@ -10255,22 +10255,22 @@
         <v>135.05</v>
       </c>
       <c r="J201">
-        <v>31.3</v>
+        <v>31.66</v>
       </c>
       <c r="K201">
-        <v>14.4</v>
+        <v>14.45</v>
       </c>
       <c r="L201">
-        <v>133.49</v>
+        <v>136.84</v>
       </c>
       <c r="M201">
-        <v>15510489</v>
+        <v>16090180</v>
       </c>
       <c r="N201">
-        <v>8368337</v>
+        <v>8428219</v>
       </c>
       <c r="O201">
-        <v>2605540</v>
+        <v>2643582</v>
       </c>
       <c r="P201">
         <v>3887</v>
@@ -10296,7 +10296,7 @@
         <v>211859</v>
       </c>
       <c r="F202">
-        <v>10071163</v>
+        <v>10101688</v>
       </c>
       <c r="G202">
         <v>8724780</v>
@@ -10308,22 +10308,22 @@
         <v>136.9</v>
       </c>
       <c r="J202">
-        <v>31.68</v>
+        <v>32.02</v>
       </c>
       <c r="K202">
-        <v>14.46</v>
+        <v>14.51</v>
       </c>
       <c r="L202">
-        <v>134.04</v>
+        <v>137.37</v>
       </c>
       <c r="M202">
-        <v>15673799</v>
+        <v>16253490</v>
       </c>
       <c r="N202">
-        <v>8381894</v>
+        <v>8441758</v>
       </c>
       <c r="O202">
-        <v>2635457</v>
+        <v>2671379</v>
       </c>
       <c r="P202">
         <v>3895</v>
@@ -10349,7 +10349,7 @@
         <v>223173</v>
       </c>
       <c r="F203">
-        <v>9851253</v>
+        <v>9887040</v>
       </c>
       <c r="G203">
         <v>8695175</v>
@@ -10361,7 +10361,7 @@
         <v>138.01</v>
       </c>
       <c r="J203">
-        <v>31.78</v>
+        <v>31.8</v>
       </c>
       <c r="K203">
         <v>14.47</v>
@@ -10376,7 +10376,7 @@
         <v>8380544</v>
       </c>
       <c r="O203">
-        <v>2650959</v>
+        <v>2659925</v>
       </c>
       <c r="P203">
         <v>3915</v>
@@ -10414,7 +10414,7 @@
         <v>137.51</v>
       </c>
       <c r="J204">
-        <v>31.92</v>
+        <v>31.8</v>
       </c>
       <c r="K204">
         <v>14.52</v>
@@ -10429,7 +10429,7 @@
         <v>8330361</v>
       </c>
       <c r="O204">
-        <v>2658781</v>
+        <v>2667747</v>
       </c>
       <c r="P204">
         <v>3927</v>
@@ -10467,7 +10467,7 @@
         <v>137.95</v>
       </c>
       <c r="J205">
-        <v>32.16</v>
+        <v>32.04</v>
       </c>
       <c r="K205">
         <v>14.52</v>
@@ -10482,7 +10482,7 @@
         <v>8360752</v>
       </c>
       <c r="O205">
-        <v>2687330</v>
+        <v>2696296</v>
       </c>
       <c r="P205">
         <v>3938</v>
@@ -10520,7 +10520,7 @@
         <v>138.97</v>
       </c>
       <c r="J206">
-        <v>32.12</v>
+        <v>32</v>
       </c>
       <c r="K206">
         <v>14.65</v>
@@ -10535,7 +10535,7 @@
         <v>8190399</v>
       </c>
       <c r="O206">
-        <v>2682384</v>
+        <v>2691350</v>
       </c>
       <c r="P206">
         <v>3943</v>
@@ -10573,7 +10573,7 @@
         <v>140.64</v>
       </c>
       <c r="J207">
-        <v>32.2</v>
+        <v>32.08</v>
       </c>
       <c r="K207">
         <v>14.64</v>
@@ -10588,7 +10588,7 @@
         <v>8167954</v>
       </c>
       <c r="O207">
-        <v>2694735</v>
+        <v>2703701</v>
       </c>
       <c r="P207">
         <v>3943</v>
@@ -10626,7 +10626,7 @@
         <v>140.76</v>
       </c>
       <c r="J208">
-        <v>32.44</v>
+        <v>32.32</v>
       </c>
       <c r="K208">
         <v>14.7</v>
@@ -10641,7 +10641,7 @@
         <v>8133267</v>
       </c>
       <c r="O208">
-        <v>2719318</v>
+        <v>2728284</v>
       </c>
       <c r="P208">
         <v>3945</v>
@@ -10679,7 +10679,7 @@
         <v>140.62</v>
       </c>
       <c r="J209">
-        <v>32.31</v>
+        <v>32.42</v>
       </c>
       <c r="K209">
         <v>14.74</v>
@@ -10694,7 +10694,7 @@
         <v>8038963</v>
       </c>
       <c r="O209">
-        <v>2707760</v>
+        <v>2716726</v>
       </c>
       <c r="P209">
         <v>3954</v>
@@ -10732,7 +10732,7 @@
         <v>140.5</v>
       </c>
       <c r="J210">
-        <v>32.18</v>
+        <v>32.25</v>
       </c>
       <c r="K210">
         <v>14.77</v>
@@ -10747,7 +10747,7 @@
         <v>7908330</v>
       </c>
       <c r="O210">
-        <v>2680325</v>
+        <v>2686929</v>
       </c>
       <c r="P210">
         <v>3955</v>
@@ -10785,7 +10785,7 @@
         <v>140.32</v>
       </c>
       <c r="J211">
-        <v>31.96</v>
+        <v>32.01</v>
       </c>
       <c r="K211">
         <v>14.74</v>
@@ -10800,7 +10800,7 @@
         <v>7873641</v>
       </c>
       <c r="O211">
-        <v>2671968</v>
+        <v>2676231</v>
       </c>
       <c r="P211">
         <v>3950</v>
@@ -10838,7 +10838,7 @@
         <v>139.1</v>
       </c>
       <c r="J212">
-        <v>32.2</v>
+        <v>32.22</v>
       </c>
       <c r="K212">
         <v>14.7</v>
@@ -10853,7 +10853,7 @@
         <v>7781838</v>
       </c>
       <c r="O212">
-        <v>2637230</v>
+        <v>2639284</v>
       </c>
       <c r="P212">
         <v>3967</v>
@@ -11877,7 +11877,7 @@
         <v>32598</v>
       </c>
       <c r="B232">
-        <v>1361133</v>
+        <v>1367669</v>
       </c>
       <c r="D232">
         <v>652549</v>
@@ -11886,7 +11886,7 @@
         <v>176192</v>
       </c>
       <c r="F232">
-        <v>11588977</v>
+        <v>11714703</v>
       </c>
       <c r="G232">
         <v>10451849</v>
@@ -35204,7 +35204,7 @@
         <v>522125</v>
       </c>
       <c r="E656">
-        <v>181903</v>
+        <v>181829</v>
       </c>
       <c r="F656">
         <v>8487700</v>
@@ -35234,7 +35234,7 @@
         <v>5258456</v>
       </c>
       <c r="O656">
-        <v>1978708</v>
+        <v>1978634</v>
       </c>
       <c r="P656">
         <v>5459</v>
@@ -35260,10 +35260,10 @@
         <v>408600</v>
       </c>
       <c r="E657">
-        <v>164606</v>
+        <v>164528</v>
       </c>
       <c r="F657">
-        <v>7586002</v>
+        <v>7586001</v>
       </c>
       <c r="G657">
         <v>6466287</v>
@@ -35290,7 +35290,7 @@
         <v>5241206</v>
       </c>
       <c r="O657">
-        <v>1987192</v>
+        <v>1987040</v>
       </c>
       <c r="P657">
         <v>5473</v>
@@ -35316,7 +35316,7 @@
         <v>351269</v>
       </c>
       <c r="E658">
-        <v>169593</v>
+        <v>169526</v>
       </c>
       <c r="F658">
         <v>7613585</v>
@@ -35346,7 +35346,7 @@
         <v>5255969</v>
       </c>
       <c r="O658">
-        <v>2015628</v>
+        <v>2015409</v>
       </c>
       <c r="P658">
         <v>5495</v>
@@ -35355,7 +35355,7 @@
         <v>14923</v>
       </c>
       <c r="R658">
-        <v>463450</v>
+        <v>466887</v>
       </c>
     </row>
     <row r="659">
@@ -35387,7 +35387,7 @@
         <v>458.86</v>
       </c>
       <c r="J659">
-        <v>38.44</v>
+        <v>38.43</v>
       </c>
       <c r="K659">
         <v>15.2</v>
@@ -35402,16 +35402,16 @@
         <v>5281068</v>
       </c>
       <c r="O659">
-        <v>2011191</v>
+        <v>2010972</v>
       </c>
       <c r="P659">
-        <v>5514</v>
+        <v>5508</v>
       </c>
       <c r="Q659">
-        <v>14940</v>
+        <v>14941</v>
       </c>
       <c r="R659">
-        <v>460885</v>
+        <v>465683</v>
       </c>
     </row>
     <row r="660">
@@ -35419,49 +35419,108 @@
         <v>45626</v>
       </c>
       <c r="B660">
-        <v>940144</v>
+        <v>941073</v>
+      </c>
+      <c r="C660">
+        <v>1681.3</v>
       </c>
       <c r="D660">
-        <v>358357</v>
+        <v>368899</v>
       </c>
       <c r="E660">
-        <v>151095</v>
+        <v>155499</v>
       </c>
       <c r="F660">
-        <v>6433063</v>
+        <v>6728016</v>
       </c>
       <c r="G660">
-        <v>5280371</v>
+        <v>5563175</v>
       </c>
       <c r="H660">
-        <v>2450076</v>
+        <v>2513668</v>
       </c>
       <c r="I660">
-        <v>472.55</v>
+        <v>460.95</v>
       </c>
       <c r="J660">
-        <v>38.51</v>
+        <v>38.59</v>
       </c>
       <c r="K660">
-        <v>15.22</v>
+        <v>15.25</v>
       </c>
       <c r="L660">
-        <v>453.55</v>
+        <v>452.81</v>
       </c>
       <c r="M660">
-        <v>35581825</v>
+        <v>35645417</v>
       </c>
       <c r="N660">
-        <v>5246097</v>
+        <v>5256639</v>
       </c>
       <c r="O660">
-        <v>2011187</v>
+        <v>2015372</v>
       </c>
       <c r="P660">
-        <v>5534</v>
+        <v>5521</v>
       </c>
       <c r="Q660">
-        <v>14955</v>
+        <v>14958</v>
+      </c>
+      <c r="R660">
+        <v>465284</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B661">
+        <v>1286585</v>
+      </c>
+      <c r="C661">
+        <v>1926.7</v>
+      </c>
+      <c r="D661">
+        <v>541871</v>
+      </c>
+      <c r="E661">
+        <v>194345</v>
+      </c>
+      <c r="F661">
+        <v>9204439</v>
+      </c>
+      <c r="G661">
+        <v>7721352</v>
+      </c>
+      <c r="H661">
+        <v>3511565</v>
+      </c>
+      <c r="I661">
+        <v>463.66</v>
+      </c>
+      <c r="J661">
+        <v>39.38</v>
+      </c>
+      <c r="K661">
+        <v>15.27</v>
+      </c>
+      <c r="L661">
+        <v>453.85</v>
+      </c>
+      <c r="M661">
+        <v>36307411</v>
+      </c>
+      <c r="N661">
+        <v>5333071</v>
+      </c>
+      <c r="O661">
+        <v>2050424</v>
+      </c>
+      <c r="P661">
+        <v>5531</v>
+      </c>
+      <c r="Q661">
+        <v>14975</v>
       </c>
     </row>
   </sheetData>
